--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35216.89832097218</v>
+        <v>7008162.765873468</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35216.89832097218</v>
+        <v>7008162.765873468</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21680.90540292901</v>
+        <v>1306173.416560304</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21680.90540292901</v>
+        <v>1306173.416560304</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343339123.177368</v>
+        <v>54594883.74251021</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12529.88257636471</v>
+        <v>1344327.458147639</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23415.61199286447</v>
+        <v>2417515.563801215</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34301.34140936422</v>
+        <v>3490703.669454795</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45655.7956604881</v>
+        <v>4561985.2260862</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57010.24991161197</v>
+        <v>5633266.782717605</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68363.89938660104</v>
+        <v>6704486.526894305</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79717.85947694037</v>
+        <v>7775768.083525706</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91071.81956727972</v>
+        <v>8847049.640157105</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102424.302727375</v>
+        <v>9917602.092650978</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113778.2174943422</v>
+        <v>10988439.43491237</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125131.7378085914</v>
+        <v>12059198.28108287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136485.6525755586</v>
+        <v>13130035.62334428</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147829.2913108664</v>
+        <v>14201280.92431824</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159182.8116251156</v>
+        <v>15272039.77048875</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170536.7263920828</v>
+        <v>16342877.11275015</v>
       </c>
     </row>
   </sheetData>
